--- a/natmiOut/OldD7/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>107.467781494682</v>
+        <v>108.595075</v>
       </c>
       <c r="H2">
-        <v>107.467781494682</v>
+        <v>325.785225</v>
       </c>
       <c r="I2">
-        <v>0.05300458197941883</v>
+        <v>0.04639022893696803</v>
       </c>
       <c r="J2">
-        <v>0.05300458197941883</v>
+        <v>0.04639022893696803</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>733.0788142750062</v>
+        <v>883.0119660725499</v>
       </c>
       <c r="R2">
-        <v>733.0788142750062</v>
+        <v>7947.107694652948</v>
       </c>
       <c r="S2">
-        <v>0.0009884298713600114</v>
+        <v>0.0009700176333839064</v>
       </c>
       <c r="T2">
-        <v>0.0009884298713600114</v>
+        <v>0.0009700176333839066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>107.467781494682</v>
+        <v>108.595075</v>
       </c>
       <c r="H3">
-        <v>107.467781494682</v>
+        <v>325.785225</v>
       </c>
       <c r="I3">
-        <v>0.05300458197941883</v>
+        <v>0.04639022893696803</v>
       </c>
       <c r="J3">
-        <v>0.05300458197941883</v>
+        <v>0.04639022893696803</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>26079.71945127631</v>
+        <v>26429.47826643657</v>
       </c>
       <c r="R3">
-        <v>26079.71945127631</v>
+        <v>237865.3043979291</v>
       </c>
       <c r="S3">
-        <v>0.03516398679154833</v>
+        <v>0.0290336495366064</v>
       </c>
       <c r="T3">
-        <v>0.03516398679154833</v>
+        <v>0.0290336495366064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>107.467781494682</v>
+        <v>108.595075</v>
       </c>
       <c r="H4">
-        <v>107.467781494682</v>
+        <v>325.785225</v>
       </c>
       <c r="I4">
-        <v>0.05300458197941883</v>
+        <v>0.04639022893696803</v>
       </c>
       <c r="J4">
-        <v>0.05300458197941883</v>
+        <v>0.04639022893696803</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>9491.708157276013</v>
+        <v>11287.65860550621</v>
       </c>
       <c r="R4">
-        <v>9491.708157276013</v>
+        <v>101588.9274495559</v>
       </c>
       <c r="S4">
-        <v>0.01279792525741113</v>
+        <v>0.01239986354393187</v>
       </c>
       <c r="T4">
-        <v>0.01279792525741113</v>
+        <v>0.01239986354393187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>107.467781494682</v>
+        <v>108.595075</v>
       </c>
       <c r="H5">
-        <v>107.467781494682</v>
+        <v>325.785225</v>
       </c>
       <c r="I5">
-        <v>0.05300458197941883</v>
+        <v>0.04639022893696803</v>
       </c>
       <c r="J5">
-        <v>0.05300458197941883</v>
+        <v>0.04639022893696803</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>3006.867337205638</v>
+        <v>3629.111590259533</v>
       </c>
       <c r="R5">
-        <v>3006.867337205638</v>
+        <v>32662.0043123358</v>
       </c>
       <c r="S5">
-        <v>0.004054240059099359</v>
+        <v>0.00398669822304585</v>
       </c>
       <c r="T5">
-        <v>0.004054240059099359</v>
+        <v>0.003986698223045851</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>251.002022791808</v>
+        <v>251.7279513333333</v>
       </c>
       <c r="H6">
-        <v>251.002022791808</v>
+        <v>755.183854</v>
       </c>
       <c r="I6">
-        <v>0.1237976359894123</v>
+        <v>0.1075345018380187</v>
       </c>
       <c r="J6">
-        <v>0.1237976359894123</v>
+        <v>0.1075345018380187</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>1712.180736307021</v>
+        <v>2046.858876631945</v>
       </c>
       <c r="R6">
-        <v>1712.180736307021</v>
+        <v>18421.72988968751</v>
       </c>
       <c r="S6">
-        <v>0.00230857931231684</v>
+        <v>0.002248541672897589</v>
       </c>
       <c r="T6">
-        <v>0.00230857931231684</v>
+        <v>0.00224854167289759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>251.002022791808</v>
+        <v>251.7279513333333</v>
       </c>
       <c r="H7">
-        <v>251.002022791808</v>
+        <v>755.183854</v>
       </c>
       <c r="I7">
-        <v>0.1237976359894123</v>
+        <v>0.1075345018380187</v>
       </c>
       <c r="J7">
-        <v>0.1237976359894123</v>
+        <v>0.1075345018380187</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>60911.85883870826</v>
+        <v>61264.6422392446</v>
       </c>
       <c r="R7">
-        <v>60911.85883870826</v>
+        <v>551381.7801532014</v>
       </c>
       <c r="S7">
-        <v>0.08212909665898158</v>
+        <v>0.06730122077432987</v>
       </c>
       <c r="T7">
-        <v>0.08212909665898158</v>
+        <v>0.0673012207743299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>251.002022791808</v>
+        <v>251.7279513333333</v>
       </c>
       <c r="H8">
-        <v>251.002022791808</v>
+        <v>755.183854</v>
       </c>
       <c r="I8">
-        <v>0.1237976359894123</v>
+        <v>0.1075345018380187</v>
       </c>
       <c r="J8">
-        <v>0.1237976359894123</v>
+        <v>0.1075345018380187</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>22168.85762495877</v>
+        <v>26165.2674038316</v>
       </c>
       <c r="R8">
-        <v>22168.85762495877</v>
+        <v>235487.4066344844</v>
       </c>
       <c r="S8">
-        <v>0.02989086666227982</v>
+        <v>0.02874340523018062</v>
       </c>
       <c r="T8">
-        <v>0.02989086666227982</v>
+        <v>0.02874340523018063</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>251.002022791808</v>
+        <v>251.7279513333333</v>
       </c>
       <c r="H9">
-        <v>251.002022791808</v>
+        <v>755.183854</v>
       </c>
       <c r="I9">
-        <v>0.1237976359894123</v>
+        <v>0.1075345018380187</v>
       </c>
       <c r="J9">
-        <v>0.1237976359894123</v>
+        <v>0.1075345018380187</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>7022.846972444297</v>
+        <v>8412.433305802198</v>
       </c>
       <c r="R9">
-        <v>7022.846972444297</v>
+        <v>75711.89975221979</v>
       </c>
       <c r="S9">
-        <v>0.009469093355834046</v>
+        <v>0.009241334160610621</v>
       </c>
       <c r="T9">
-        <v>0.009469093355834046</v>
+        <v>0.009241334160610624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1603.27418717507</v>
+        <v>1894.44458</v>
       </c>
       <c r="H10">
-        <v>1603.27418717507</v>
+        <v>5683.33374</v>
       </c>
       <c r="I10">
-        <v>0.7907567915488452</v>
+        <v>0.8092790375125046</v>
       </c>
       <c r="J10">
-        <v>0.7907567915488452</v>
+        <v>0.8092790375125047</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>10936.54603961639</v>
+        <v>15404.17218001172</v>
       </c>
       <c r="R10">
-        <v>10936.54603961639</v>
+        <v>138637.5496201055</v>
       </c>
       <c r="S10">
-        <v>0.01474603901321533</v>
+        <v>0.01692198884773153</v>
       </c>
       <c r="T10">
-        <v>0.01474603901321533</v>
+        <v>0.01692198884773153</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1603.27418717507</v>
+        <v>1894.44458</v>
       </c>
       <c r="H11">
-        <v>1603.27418717507</v>
+        <v>5683.33374</v>
       </c>
       <c r="I11">
-        <v>0.7907567915488452</v>
+        <v>0.8092790375125046</v>
       </c>
       <c r="J11">
-        <v>0.7907567915488452</v>
+        <v>0.8092790375125047</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>389074.1990153391</v>
+        <v>461063.099353986</v>
       </c>
       <c r="R11">
-        <v>389074.1990153391</v>
+        <v>4149567.894185874</v>
       </c>
       <c r="S11">
-        <v>0.5245992013322092</v>
+        <v>0.5064929510131422</v>
       </c>
       <c r="T11">
-        <v>0.5245992013322092</v>
+        <v>0.5064929510131424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1603.27418717507</v>
+        <v>1894.44458</v>
       </c>
       <c r="H12">
-        <v>1603.27418717507</v>
+        <v>5683.33374</v>
       </c>
       <c r="I12">
-        <v>0.7907567915488452</v>
+        <v>0.8092790375125046</v>
       </c>
       <c r="J12">
-        <v>0.7907567915488452</v>
+        <v>0.8092790375125047</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>141603.4691431006</v>
+        <v>196913.5678214836</v>
       </c>
       <c r="R12">
-        <v>141603.4691431006</v>
+        <v>1772222.110393352</v>
       </c>
       <c r="S12">
-        <v>0.190927763923539</v>
+        <v>0.2163160187839212</v>
       </c>
       <c r="T12">
-        <v>0.190927763923539</v>
+        <v>0.2163160187839213</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1603.27418717507</v>
+        <v>1894.44458</v>
       </c>
       <c r="H13">
-        <v>1603.27418717507</v>
+        <v>5683.33374</v>
       </c>
       <c r="I13">
-        <v>0.7907567915488452</v>
+        <v>0.8092790375125046</v>
       </c>
       <c r="J13">
-        <v>0.7907567915488452</v>
+        <v>0.8092790375125047</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>44858.400526675</v>
+        <v>63309.96854491194</v>
       </c>
       <c r="R13">
-        <v>44858.400526675</v>
+        <v>569789.7169042075</v>
       </c>
       <c r="S13">
-        <v>0.06048378727988151</v>
+        <v>0.06954807886770964</v>
       </c>
       <c r="T13">
-        <v>0.06048378727988151</v>
+        <v>0.06954807886770967</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>65.77471506103279</v>
+        <v>86.13644799999999</v>
       </c>
       <c r="H14">
-        <v>65.77471506103279</v>
+        <v>258.409344</v>
       </c>
       <c r="I14">
-        <v>0.03244099048232375</v>
+        <v>0.03679623171250852</v>
       </c>
       <c r="J14">
-        <v>0.03244099048232375</v>
+        <v>0.03679623171250853</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>448.6744720658848</v>
+        <v>700.3956146168318</v>
       </c>
       <c r="R14">
-        <v>448.6744720658848</v>
+        <v>6303.560531551487</v>
       </c>
       <c r="S14">
-        <v>0.0006049598516159489</v>
+        <v>0.0007694075761451974</v>
       </c>
       <c r="T14">
-        <v>0.0006049598516159489</v>
+        <v>0.0007694075761451976</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>65.77471506103279</v>
+        <v>86.13644799999999</v>
       </c>
       <c r="H15">
-        <v>65.77471506103279</v>
+        <v>258.409344</v>
       </c>
       <c r="I15">
-        <v>0.03244099048232375</v>
+        <v>0.03679623171250852</v>
       </c>
       <c r="J15">
-        <v>0.03244099048232375</v>
+        <v>0.03679623171250853</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>15961.86402958601</v>
+        <v>20963.5785081786</v>
       </c>
       <c r="R15">
-        <v>15961.86402958601</v>
+        <v>188672.2065736074</v>
       </c>
       <c r="S15">
-        <v>0.02152181034590786</v>
+        <v>0.02302917921056844</v>
       </c>
       <c r="T15">
-        <v>0.02152181034590786</v>
+        <v>0.02302917921056845</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>65.77471506103279</v>
+        <v>86.13644799999999</v>
       </c>
       <c r="H16">
-        <v>65.77471506103279</v>
+        <v>258.409344</v>
       </c>
       <c r="I16">
-        <v>0.03244099048232375</v>
+        <v>0.03679623171250852</v>
       </c>
       <c r="J16">
-        <v>0.03244099048232375</v>
+        <v>0.03679623171250853</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>5809.316902277399</v>
+        <v>8953.249661781972</v>
       </c>
       <c r="R16">
-        <v>5809.316902277399</v>
+        <v>80579.24695603775</v>
       </c>
       <c r="S16">
-        <v>0.007832858141025892</v>
+        <v>0.009835438682269737</v>
       </c>
       <c r="T16">
-        <v>0.007832858141025892</v>
+        <v>0.009835438682269741</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>65.77471506103279</v>
+        <v>86.13644799999999</v>
       </c>
       <c r="H17">
-        <v>65.77471506103279</v>
+        <v>258.409344</v>
       </c>
       <c r="I17">
-        <v>0.03244099048232375</v>
+        <v>0.03679623171250852</v>
       </c>
       <c r="J17">
-        <v>0.03244099048232375</v>
+        <v>0.03679623171250853</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>1840.326836381322</v>
+        <v>2878.572364175701</v>
       </c>
       <c r="R17">
-        <v>1840.326836381322</v>
+        <v>25907.15127758131</v>
       </c>
       <c r="S17">
-        <v>0.002481362143774048</v>
+        <v>0.003162206243525144</v>
       </c>
       <c r="T17">
-        <v>0.002481362143774048</v>
+        <v>0.003162206243525145</v>
       </c>
     </row>
   </sheetData>
